--- a/芝刈進捗表.xlsx
+++ b/芝刈進捗表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13230" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -776,6 +776,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,24 +822,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2748,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2870,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2936,132 +2936,127 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="42" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="36" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="27" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="40"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="28"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="28"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="41"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="J7:J12"/>
     <mergeCell ref="Q7:Q12"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="O9:P10"/>
@@ -3073,6 +3068,11 @@
     <mergeCell ref="K7:M8"/>
     <mergeCell ref="K9:M10"/>
     <mergeCell ref="K11:M12"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J7:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3153,20 +3153,20 @@
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="45" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="46"/>
       <c r="L7" s="47"/>
       <c r="M7" s="48"/>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="34" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="52"/>
@@ -3177,18 +3177,18 @@
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="49"/>
       <c r="L8" s="50"/>
       <c r="M8" s="51"/>
-      <c r="N8" s="29"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="54"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="44"/>
